--- a/Assignments/Assignment5/result_data.xlsx
+++ b/Assignments/Assignment5/result_data.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>91.58</v>
+        <v>91.41</v>
       </c>
       <c r="C2">
-        <v>96.94</v>
+        <v>99.98</v>
       </c>
       <c r="D2">
-        <v>97.37</v>
+        <v>95.7</v>
       </c>
       <c r="E2">
         <v>4104</v>
